--- a/biology/Botanique/Sedum_sexangulare/Sedum_sexangulare.xlsx
+++ b/biology/Botanique/Sedum_sexangulare/Sedum_sexangulare.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Orpin doux
 L'Orpin doux (Sedum sexangulare), Orpin de Bologne ou Orpin à six angles, est une espèce de plantes vivaces de la famille des Crassulacées.
@@ -512,15 +524,13 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Sedum sexangulare : étymologie : à six angles, concernant la disposition des feuilles en six spirales ; cet orpin a été nommé par Linné en 1753 - protonyme.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sedum sexangulare : étymologie : à six angles, concernant la disposition des feuilles en six spirales ; cet orpin a été nommé par Linné en 1753 - protonyme.
 Contrairement à l'Orpin âcre, il ne possède pas ce goût brûlant, ce que traduit son nom vernaculaire d'Orpin doux.
-Synonymes
-Sedum boloniense Loisel.
-Sedum mite Gilib.
-Sedum de Boulogne 
-et autres</t>
+</t>
         </is>
       </c>
     </row>
@@ -545,14 +555,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ses feuilles allongées, cylindriques sont longues de 3 à 9 mm, elles ne se chevauchent pas ; ses fleurs larges de 8 à 10 mm sont plus pâles que celles de l'orpin âcre.
-La floraison est plus tardive que celle de l'orpin âcre : de juin à septembre selon la localisation.
-</t>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Sedum boloniense Loisel.
+Sedum mite Gilib.
+Sedum de Boulogne 
+et autres</t>
         </is>
       </c>
     </row>
@@ -577,10 +594,46 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses feuilles allongées, cylindriques sont longues de 3 à 9 mm, elles ne se chevauchent pas ; ses fleurs larges de 8 à 10 mm sont plus pâles que celles de l'orpin âcre.
+La floraison est plus tardive que celle de l'orpin âcre : de juin à septembre selon la localisation.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sedum_sexangulare</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sedum_sexangulare</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Europe : depuis les rives de la mer Baltique, de la moitié nord de la France aux Carpates ; introduit au Canada et aux États-Unis.
 Sur les autres projets Wikimedia :
@@ -589,31 +642,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Sedum_sexangulare</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Sedum_sexangulare</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet orpin fait partie des sédums utilisés pour les toitures végétales.
 </t>
